--- a/common/data/template/expenses.xlsx
+++ b/common/data/template/expenses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\travel-bill\common\data\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B70BC74B-B397-477F-8219-A1E32A03F7AD}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3A78CE5C-8AC3-488B-B254-5FA288ECCC13}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="4035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,6 +47,10 @@
   </si>
   <si>
     <t>有无发票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -403,39 +407,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="7" max="7" width="51.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="51.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
     </row>

--- a/common/data/template/expenses.xlsx
+++ b/common/data/template/expenses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\travel-bill\common\data\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3A78CE5C-8AC3-488B-B254-5FA288ECCC13}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2E707D37-5FB9-4E6C-B262-C0B783624BA5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="4035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,6 +51,10 @@
   </si>
   <si>
     <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经手人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -407,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -418,10 +422,10 @@
     <col min="1" max="1" width="14.5703125" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="8" max="8" width="51.5703125" customWidth="1"/>
+    <col min="9" max="9" width="51.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -438,12 +442,15 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
     </row>

--- a/common/data/template/expenses.xlsx
+++ b/common/data/template/expenses.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\travel-bill\common\data\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2E707D37-5FB9-4E6C-B262-C0B783624BA5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EA2E0348-06A0-41E4-AF72-F56C1D4CE1EF}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="4035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,10 +30,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>地点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>类别</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -47,10 +43,6 @@
   </si>
   <si>
     <t>有无发票</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -411,47 +403,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="9" max="9" width="51.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="51.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
